--- a/dados_extraido.xlsx
+++ b/dados_extraido.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MICALEA RUBISON CORTES DE GASTOS</t>
+          <t>RENATO RUSSO DE SOUZA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0000003</t>
+          <t>CPF:045.858.919-74</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[5.684748499887064]</t>
+          <t>[2.1631304998882115]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -501,19 +501,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3c57e4c4-c1e3-48d1-967f-abf6ab977880</t>
+          <t>0d7dad91-be69-4e42-bf44-eb8dd6c0d9c8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MICALEA RUBISON CORTES DE GASTOS</t>
+          <t>MICAELA RUBISON CORTES DA GASTOS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0000003</t>
+          <t>none</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[3.7361066001467407]</t>
+          <t>[1.6375785998534411]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3c57e4c4-c1e3-48d1-967f-abf6ab977880</t>
+          <t>0d7dad91-be69-4e42-bf44-eb8dd6c0d9c8</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0000003</t>
+          <t>SIAPE:0000003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1.1577306999824941]</t>
+          <t>[0.9214926999993622]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3c57e4c4-c1e3-48d1-967f-abf6ab977880</t>
+          <t>0d7dad91-be69-4e42-bf44-eb8dd6c0d9c8</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.9563253000378609]</t>
+          <t>[0.7677021999843419]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3c57e4c4-c1e3-48d1-967f-abf6ab977880</t>
+          <t>0d7dad91-be69-4e42-bf44-eb8dd6c0d9c8</t>
         </is>
       </c>
     </row>
